--- a/data/yield.xlsx
+++ b/data/yield.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppawand/Desktop/MS data/yield/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppawand/Desktop/MSProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE59FF-5A8B-AD4C-9587-9C7E2295A77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1359C706-FDA5-7845-8390-20147A3217E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{42ACCC4D-8791-694D-B66D-5485855FCC69}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
   <si>
     <t>D2WR1</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>NH4</t>
+  </si>
+  <si>
+    <t>totalN</t>
   </si>
 </sst>
 </file>
@@ -270,10 +273,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,18 +590,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BD06F7-BC1E-B745-8B9E-9AE428F47DC5}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="H2" sqref="H2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="11" style="1"/>
+    <col min="13" max="13" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -622,25 +624,28 @@
         <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -663,25 +668,29 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="H2">
+        <f>F2+G2</f>
+        <v>11.65</v>
+      </c>
+      <c r="I2">
         <v>1280</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1792</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.31</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>26.900399999999998</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -704,25 +713,29 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H49" si="0">F3+G3</f>
+        <v>6.5</v>
+      </c>
+      <c r="I3">
         <v>1094</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1413</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.8</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>36.427624999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -745,25 +758,29 @@
         <v>1.95</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="I4">
         <v>1502.9999999999998</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1779</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4.7</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.38500000000000001</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>34.74635</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -786,25 +803,29 @@
         <v>1.74</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8.11</v>
+      </c>
+      <c r="I5">
         <v>1484</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2159</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4.7</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>25.779549999999997</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.73</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -827,25 +848,29 @@
         <v>2.25</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+      <c r="I6">
         <v>1855</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1457</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.375</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>35.306774999999995</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -868,25 +893,29 @@
         <v>1.97</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7.29</v>
+      </c>
+      <c r="I7">
         <v>1471</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1904</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4.2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.34</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>25.219124999999998</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.66</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -909,25 +938,29 @@
         <v>1.92</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="I8">
         <v>1265</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1743</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.35499999999999998</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>23.537849999999999</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -950,25 +983,29 @@
         <v>1.93</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="I9">
         <v>1819</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1634</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.35</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>29.702524999999998</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -991,25 +1028,29 @@
         <v>2.35</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>8.17</v>
+      </c>
+      <c r="I10">
         <v>1182</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1952</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4.2</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.42</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>34.74635</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1032,25 +1073,29 @@
         <v>2.59</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5.85</v>
+      </c>
+      <c r="I11">
         <v>1291</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1622</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.45500000000000002</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>40.3506</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1073,25 +1118,29 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>10.89</v>
+      </c>
+      <c r="I12">
         <v>1445</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2455</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>5.6</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.42</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>35.306774999999995</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1114,25 +1163,29 @@
         <v>2.11</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>6.18</v>
+      </c>
+      <c r="I13">
         <v>2201</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2384</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.46500000000000002</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>35.867199999999997</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1.23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1155,25 +1208,29 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="I14">
         <v>1731</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1982</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.40500000000000003</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>34.74635</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.79</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1196,25 +1253,29 @@
         <v>2.93</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
+        <v>9.82</v>
+      </c>
+      <c r="I15">
         <v>1857</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1745</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5.5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.38500000000000001</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>35.867199999999997</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.88</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1237,25 +1298,29 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>12.760000000000002</v>
+      </c>
+      <c r="I16">
         <v>1192</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1932</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>4.5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.44</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>38.669324999999994</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1278,25 +1343,29 @@
         <v>2.5</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>9.24</v>
+      </c>
+      <c r="I17">
         <v>1527</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.9</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.42499999999999999</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>34.74635</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1319,25 +1388,29 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
+        <v>19.619999999999997</v>
+      </c>
+      <c r="I18">
         <v>1467.9999999999998</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1324</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3.5</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.45</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>53.800799999999995</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.82</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1360,25 +1433,29 @@
         <v>2.63</v>
       </c>
       <c r="H19">
+        <f t="shared" si="0"/>
+        <v>5.55</v>
+      </c>
+      <c r="I19">
         <v>1902</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1855</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2.9</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.375</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>39.229749999999996</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.91</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1401,25 +1478,29 @@
         <v>3.38</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
+        <v>10.29</v>
+      </c>
+      <c r="I20">
         <v>2042.9999999999998</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1455</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4.3</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.39500000000000002</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>44.273574999999994</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.53</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1442,25 +1523,29 @@
         <v>2.54</v>
       </c>
       <c r="H21">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="I21">
         <v>1129</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1915</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5.2</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.48499999999999999</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>46.515274999999995</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1483,25 +1568,29 @@
         <v>2.65</v>
       </c>
       <c r="H22">
+        <f t="shared" si="0"/>
+        <v>6.98</v>
+      </c>
+      <c r="I22">
         <v>2300</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>953</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2.5</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.34499999999999997</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>44.273574999999994</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.68</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1524,25 +1613,29 @@
         <v>2.52</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
+        <v>7.4700000000000006</v>
+      </c>
+      <c r="I23">
         <v>1182.9999999999998</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1285</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.35499999999999998</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>56.602924999999992</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.98</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1565,25 +1658,29 @@
         <v>2.98</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
+        <v>17.78</v>
+      </c>
+      <c r="I24">
         <v>1655</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1600</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4.3</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.48499999999999999</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>60.525899999999993</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.01</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1606,25 +1703,29 @@
         <v>2.31</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
+        <v>7.07</v>
+      </c>
+      <c r="I25">
         <v>1317</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1099</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3.3</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.36</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>38.108899999999998</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1640,32 +1741,36 @@
       <c r="E26" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>3.63</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>1.75</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="I26">
         <v>2951</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2323</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4.2</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.85</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>22.977424999999997</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1688,25 +1793,29 @@
         <v>1.8</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
+        <v>3.77</v>
+      </c>
+      <c r="I27">
         <v>5197</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2867</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.57499999999999996</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>22.977424999999997</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.42</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1729,25 +1838,29 @@
         <v>1.85</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
+        <v>6.41</v>
+      </c>
+      <c r="I28">
         <v>3561</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2081</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3.5</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.82499999999999996</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>22.416999999999998</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.98</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1770,25 +1883,29 @@
         <v>3.48</v>
       </c>
       <c r="H29">
+        <f t="shared" si="0"/>
+        <v>9.32</v>
+      </c>
+      <c r="I29">
         <v>2960</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2711</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5.2</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.98</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>29.702524999999998</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1811,25 +1928,29 @@
         <v>1.95</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="I30">
         <v>2323</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1483</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3.7</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.75</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>24.658699999999996</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.36</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1852,25 +1973,29 @@
         <v>1.49</v>
       </c>
       <c r="H31">
+        <f t="shared" si="0"/>
+        <v>5.13</v>
+      </c>
+      <c r="I31">
         <v>3702</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1795</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>3.5</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.8</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>20.735724999999999</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2.41</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1893,25 +2018,29 @@
         <v>3.74</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
+        <v>11.48</v>
+      </c>
+      <c r="I32">
         <v>5403</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2954</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5.4</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.62</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>29.142099999999999</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1934,25 +2063,29 @@
         <v>2.04</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>8.76</v>
+      </c>
+      <c r="I33">
         <v>3187</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2621</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>4.8</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.73</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>38.669324999999994</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1.88</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1975,25 +2108,29 @@
         <v>1.82</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
+        <v>4.88</v>
+      </c>
+      <c r="I34">
         <v>4719</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2747</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7.3</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.68500000000000005</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>26.339974999999999</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1.81</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2016,25 +2153,29 @@
         <v>2.23</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="I35">
         <v>4701</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2829</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>6.7</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.4</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>25.779549999999997</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2.19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2057,25 +2198,29 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
+        <v>7.7799999999999994</v>
+      </c>
+      <c r="I36">
         <v>3680.9999999999995</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2101</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>8</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.73</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>28.021249999999998</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.69</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2098,25 +2243,29 @@
         <v>2.65</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
+        <v>9.26</v>
+      </c>
+      <c r="I37">
         <v>4236</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>3390</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.44</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>27.460824999999996</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>2.7</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2139,25 +2288,29 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
+        <v>6.08</v>
+      </c>
+      <c r="I38">
         <v>5430</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2001</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>3.9</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.4</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>27.460824999999996</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2180,25 +2333,29 @@
         <v>2.59</v>
       </c>
       <c r="H39">
+        <f t="shared" si="0"/>
+        <v>5.8699999999999992</v>
+      </c>
+      <c r="I39">
         <v>4716</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2897</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.42</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>28.581674999999997</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>3.06</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2221,25 +2378,29 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="H40">
+        <f t="shared" si="0"/>
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I40">
         <v>4921</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>2107</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>8.4</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>25.779549999999997</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>4.3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2262,25 +2423,29 @@
         <v>3.79</v>
       </c>
       <c r="H41">
+        <f t="shared" si="0"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="I41">
         <v>5502</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2899</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>5.4</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.47499999999999998</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>23.537849999999999</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>3.37</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -2303,25 +2468,29 @@
         <v>1.9</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
+        <v>8.18</v>
+      </c>
+      <c r="I42">
         <v>2999.0000000000005</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1962</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.47</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>36.988049999999994</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>1.32</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2344,25 +2513,29 @@
         <v>2.15</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
+        <v>4.79</v>
+      </c>
+      <c r="I43">
         <v>3980.0000000000005</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>1677</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>3.7</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.66</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>43.152724999999997</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>1.18</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -2385,25 +2558,29 @@
         <v>3.05</v>
       </c>
       <c r="H44">
+        <f t="shared" si="0"/>
+        <v>8.01</v>
+      </c>
+      <c r="I44">
         <v>3306</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1934</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.49</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>36.427624999999999</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>1.93</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2426,25 +2603,29 @@
         <v>1.87</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
+        <v>5.98</v>
+      </c>
+      <c r="I45">
         <v>2912</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1894</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>4</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.73</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>33.625499999999995</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>1.38</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2467,25 +2648,29 @@
         <v>1.99</v>
       </c>
       <c r="H46">
+        <f t="shared" si="0"/>
+        <v>4.38</v>
+      </c>
+      <c r="I46">
         <v>2752</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1893</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>3.7</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.45</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>36.988049999999994</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2.1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2508,25 +2693,29 @@
         <v>1.53</v>
       </c>
       <c r="H47">
+        <f t="shared" si="0"/>
+        <v>5.07</v>
+      </c>
+      <c r="I47">
         <v>3914.0000000000005</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2086</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>5.2</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.72499999999999998</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <v>36.427624999999999</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.92</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -2549,25 +2738,29 @@
         <v>1.81</v>
       </c>
       <c r="H48">
+        <f t="shared" si="0"/>
+        <v>7.18</v>
+      </c>
+      <c r="I48">
         <v>3194.0000000000005</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>3629</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>5.4</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>0.5</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <v>38.108899999999998</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>1.51</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2590,26 +2783,30 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="H49">
+        <f t="shared" si="0"/>
+        <v>21.07</v>
+      </c>
+      <c r="I49">
         <v>2192</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1672</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>3.7</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.79500000000000004</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>41.471449999999997</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.62</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
     <sortCondition ref="A1:A49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
